--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107980.290957097</v>
+        <v>1098609.745274287</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759984.410099419</v>
+        <v>1134222.401358593</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10513324.36052305</v>
+        <v>10769757.33220669</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>325.3177998004606</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>265.9704488802368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933833</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.21052528194988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>62.14231362775511</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>236.9404504125635</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>199.6710892234298</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>99.24528607353467</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117.0340619339624</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.87925221972525</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>78.47556194058308</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>3.902023044971069</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>94.57983363107962</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>106.6352148904262</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.43883415679103</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.28078740743891</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>205.5552758397596</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.31126771337235</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>137.2956700177302</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.06796452419475</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>67.95588974198583</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.9315342131675637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>25.28839462809225</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>51.04722446792932</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>112.291128326836</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>64.13206468856666</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>216.3414713305399</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>218.9751401120325</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>65.31126771337313</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.080668274849</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>170.4694561009728</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.491575381460814</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>101.690432039017</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2693.127657339155</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2340.359002069041</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X2" t="n">
-        <v>1966.893243807961</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.753911832149</v>
+        <v>2304.808759915837</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8459426266613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>362.8459426266613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>362.8459426266613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>362.8459426266613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8459426266613</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8459426266613</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>676.4685272225361</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>507.5323442946291</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4767,10 +4767,10 @@
         <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>858.1169920527758</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>858.1169920527758</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279064</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.904259672313</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>720.9183548827057</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>305.8459047277021</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>313.6498276407349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4962,52 +4962,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W10" t="n">
-        <v>541.6393785387522</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X10" t="n">
-        <v>313.6498276407349</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>313.6498276407349</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1190.154071768027</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1190.154071768027</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.154071768027</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>277.9583804647966</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>277.9583804647966</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>277.9583804647966</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>459.6068452950363</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>459.6068452950363</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>459.6068452950363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2786.829352882803</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2786.829352882803</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2413.363594621723</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.224262645911</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.887005818185</v>
+        <v>392.561141547438</v>
       </c>
       <c r="C16" t="n">
-        <v>920.887005818185</v>
+        <v>392.561141547438</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058492</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>622.8572728234561</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255457</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2644887002647</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>162.0473019181225</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="W16" t="n">
-        <v>920.887005818185</v>
+        <v>392.561141547438</v>
       </c>
       <c r="X16" t="n">
-        <v>920.887005818185</v>
+        <v>392.561141547438</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.887005818185</v>
+        <v>392.561141547438</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>262.7528459758788</v>
+        <v>641.2705654736604</v>
       </c>
       <c r="C19" t="n">
-        <v>93.81666304797187</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>93.81666304797187</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1390.617324989962</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>1207.762490644866</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>988.1610256678075</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U19" t="n">
-        <v>699.0857990120054</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V19" t="n">
-        <v>444.4013108061185</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W19" t="n">
-        <v>444.4013108061185</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="X19" t="n">
-        <v>444.4013108061185</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.4013108061185</v>
+        <v>641.2705654736604</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3344.094274136613</v>
+        <v>634.0735937191732</v>
       </c>
       <c r="C22" t="n">
-        <v>3344.094274136613</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>3344.094274136613</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>3344.094274136613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.094274136613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>3391.03041365744</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K22" t="n">
-        <v>3547.043347501773</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L22" t="n">
-        <v>3776.591987151574</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M22" t="n">
-        <v>4021.877125582258</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N22" t="n">
-        <v>4269.187457566249</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>4477.30548857301</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P22" t="n">
-        <v>4636.324446465668</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765733</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V22" t="n">
-        <v>3974.5248690084</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="W22" t="n">
-        <v>3974.5248690084</v>
+        <v>862.0631446171906</v>
       </c>
       <c r="X22" t="n">
-        <v>3746.535318110382</v>
+        <v>634.0735937191732</v>
       </c>
       <c r="Y22" t="n">
-        <v>3525.742738966852</v>
+        <v>634.0735937191732</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3344.094274136611</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="C25" t="n">
-        <v>3344.094274136611</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.094274136611</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E25" t="n">
-        <v>3344.094274136611</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.094274136611</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>3344.094274136611</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>3344.094274136611</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>3344.094274136611</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>3391.030413657439</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K25" t="n">
-        <v>3547.043347501771</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L25" t="n">
-        <v>3776.591987151573</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M25" t="n">
-        <v>4021.877125582256</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N25" t="n">
-        <v>4269.187457566247</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>4477.305488573008</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P25" t="n">
-        <v>4636.324446465666</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398592</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398592</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>4624.862174910337</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>4405.260709933278</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U25" t="n">
-        <v>4116.185483277476</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V25" t="n">
-        <v>3861.500995071589</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W25" t="n">
-        <v>3572.083825034629</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X25" t="n">
-        <v>3344.094274136611</v>
+        <v>379.3891055132865</v>
       </c>
       <c r="Y25" t="n">
-        <v>3344.094274136611</v>
+        <v>240.7066105458823</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4348.944771352166</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="C28" t="n">
-        <v>4180.008588424259</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>4029.891949011923</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>3881.97885542953</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>3735.088907931619</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>3567.892808646499</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>3426.180977488697</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>3344.094274136611</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>3391.030413657439</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K28" t="n">
-        <v>3547.043347501771</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L28" t="n">
-        <v>3776.591987151573</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.877125582256</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N28" t="n">
-        <v>4269.187457566247</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>4477.305488573008</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P28" t="n">
-        <v>4636.324446465666</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398592</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650994</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305898</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.932614305898</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U28" t="n">
-        <v>4440.932614305898</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V28" t="n">
-        <v>4440.932614305898</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W28" t="n">
-        <v>4440.932614305898</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X28" t="n">
-        <v>4440.932614305898</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="Y28" t="n">
-        <v>4440.932614305898</v>
+        <v>607.3786564113038</v>
       </c>
     </row>
     <row r="29">
@@ -6457,31 +6457,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.1249464381649</v>
+        <v>386.5860772677737</v>
       </c>
       <c r="C31" t="n">
-        <v>641.188763510258</v>
+        <v>386.5860772677737</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0721240979223</v>
+        <v>236.469437855438</v>
       </c>
       <c r="E31" t="n">
-        <v>343.1590305155291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.1590305155291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N31" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.555541309952</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V31" t="n">
-        <v>1440.555541309952</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W31" t="n">
-        <v>1440.555541309952</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.565990411935</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7734112684046</v>
+        <v>386.5860772677737</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129204</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>2876.560776129204</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923.4907637561332</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="C34" t="n">
-        <v>754.5545808282263</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="D34" t="n">
-        <v>604.4379414158906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>456.5248478334975</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>456.5248478334975</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>289.3287485483774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N34" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q34" t="n">
         <v>1440.555541309953</v>
@@ -6894,16 +6894,16 @@
         <v>1151.480314654151</v>
       </c>
       <c r="V34" t="n">
-        <v>1151.480314654151</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W34" t="n">
-        <v>1151.480314654151</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X34" t="n">
-        <v>923.4907637561332</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4907637561332</v>
+        <v>607.3786564113038</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6961,7 +6961,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>140.7528025687997</v>
@@ -7119,28 +7119,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S37" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1154.983098844639</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U37" t="n">
-        <v>865.9078721888367</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V37" t="n">
-        <v>611.2233839829498</v>
+        <v>896.7958264482644</v>
       </c>
       <c r="W37" t="n">
-        <v>321.8062139459892</v>
+        <v>607.3786564113038</v>
       </c>
       <c r="X37" t="n">
-        <v>93.81666304797187</v>
+        <v>379.3891055132865</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697564</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>140.7528025687997</v>
@@ -7356,28 +7356,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1153.908372585297</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U40" t="n">
-        <v>1153.908372585297</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V40" t="n">
-        <v>899.2238843794102</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W40" t="n">
-        <v>609.8067143424496</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X40" t="n">
-        <v>388.6197041282753</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y40" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>520.7077764012049</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C43" t="n">
-        <v>351.771593473298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D43" t="n">
-        <v>351.771593473298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E43" t="n">
-        <v>351.771593473298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>351.771593473298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,25 +7569,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N43" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q43" t="n">
         <v>1440.555541309953</v>
@@ -7596,25 +7596,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.555541309953</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="V43" t="n">
-        <v>1440.555541309953</v>
+        <v>783.4147537819123</v>
       </c>
       <c r="W43" t="n">
-        <v>1151.138371272992</v>
+        <v>493.9975837449517</v>
       </c>
       <c r="X43" t="n">
-        <v>923.1488203749748</v>
+        <v>266.0080328469343</v>
       </c>
       <c r="Y43" t="n">
-        <v>702.3562412314446</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>272.3402958561422</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C46" t="n">
-        <v>103.4041129282353</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D46" t="n">
-        <v>103.4041129282353</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E46" t="n">
-        <v>103.4041129282353</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>103.4041129282353</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T46" t="n">
-        <v>971.0535382402015</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U46" t="n">
-        <v>681.9783115843993</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V46" t="n">
-        <v>681.9783115843993</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W46" t="n">
-        <v>681.9783115843993</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X46" t="n">
-        <v>453.988760686382</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y46" t="n">
-        <v>453.988760686382</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
   </sheetData>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>265.6997797295181</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>109.5547104268439</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>249.2766965295518</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>144.7134499732413</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>1.772586778758466</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>60.61160620820162</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.93641255333065</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>92.96603369118893</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>46.58236748406844</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>115.7150182882722</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>81.28898333436462</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.76401565774255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>99.29093135664201</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.5024284334016</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2357436641766</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24894,16 +24894,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>97.56824855028304</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.00358451938793</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>115.6999154933706</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>1.063978996748375</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>6.734515277004618</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>153.2733856387217</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.44347001741987</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>48.11519725112197</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>156.032562910808</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>115.7150182882713</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.2968165616</v>
+        <v>920300.368870655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.2968165617</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.368870655</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920300.3688706548</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920300.368870655</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706551</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>378397.1239740618</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="F2" t="n">
-        <v>378397.123974062</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="G2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="H2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="I2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792568</v>
       </c>
       <c r="J2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="K2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="L2" t="n">
-        <v>450359.7549792566</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="M2" t="n">
+        <v>450359.7549792568</v>
+      </c>
+      <c r="N2" t="n">
         <v>450359.7549792567</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>450359.7549792568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>450359.7549792567</v>
       </c>
       <c r="P2" t="n">
         <v>450359.7549792567</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,19 +26395,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545115</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
+        <v>761.3882086835454</v>
+      </c>
+      <c r="H4" t="n">
+        <v>761.3882086835453</v>
+      </c>
+      <c r="I4" t="n">
+        <v>761.3882086835454</v>
+      </c>
+      <c r="J4" t="n">
+        <v>761.3882086835454</v>
+      </c>
+      <c r="K4" t="n">
+        <v>761.3882086835454</v>
+      </c>
+      <c r="L4" t="n">
         <v>761.3882086835451</v>
-      </c>
-      <c r="H4" t="n">
-        <v>761.3882086835451</v>
-      </c>
-      <c r="I4" t="n">
-        <v>761.388208683545</v>
-      </c>
-      <c r="J4" t="n">
-        <v>761.388208683545</v>
-      </c>
-      <c r="K4" t="n">
-        <v>761.388208683545</v>
-      </c>
-      <c r="L4" t="n">
-        <v>761.388208683545</v>
       </c>
       <c r="M4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>270568.3330065174</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065175</v>
+        <v>270568.3330065171</v>
       </c>
       <c r="E6" t="n">
-        <v>303506.1364236624</v>
+        <v>22118.18980484545</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236625</v>
+        <v>347530.6516122008</v>
       </c>
       <c r="G6" t="n">
-        <v>38632.80348684608</v>
+        <v>347530.6516122005</v>
       </c>
       <c r="H6" t="n">
-        <v>348475.8369466661</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="I6" t="n">
-        <v>348475.8369466663</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="J6" t="n">
-        <v>130944.6345493886</v>
+        <v>129999.4492149231</v>
       </c>
       <c r="K6" t="n">
-        <v>348475.836946666</v>
+        <v>347530.6516122005</v>
       </c>
       <c r="L6" t="n">
-        <v>348475.8369466658</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="M6" t="n">
-        <v>348475.836946666</v>
+        <v>262475.6236766889</v>
       </c>
       <c r="N6" t="n">
-        <v>348475.8369466662</v>
+        <v>347530.6516122006</v>
       </c>
       <c r="O6" t="n">
-        <v>266340.0063512148</v>
+        <v>347530.6516122007</v>
       </c>
       <c r="P6" t="n">
-        <v>348475.8369466658</v>
+        <v>347530.6516122006</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,25 +26795,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.95509197054696</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>61.7818095898981</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>232.001312923663</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>163.5673417612821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>57.66731397475695</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>51.32408273547222</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>68.00153502509316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>204.750994762927</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>595.3275373121714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>742.9354859824763</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O25" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288382</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O28" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410458</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O31" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>611.593773899143</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L34" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M34" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O34" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M43" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O43" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1098609.745274287</v>
+        <v>1104794.366897286</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358593</v>
+        <v>1759984.410099417</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10769757.33220669</v>
+        <v>10513324.36052305</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>325.3177998004606</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>175.6872326388757</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>220.161221184484</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.7029035467948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>193.2852664785249</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>199.6710892234298</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.95866062611014</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>131.9809553984411</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.87925221972525</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>88.58584547962764</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>194.57272961248</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.902023044971069</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>47.38664856090042</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6352148904262</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>65.3112677133731</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.867257030957709</v>
       </c>
       <c r="C22" t="n">
-        <v>74.28078740743891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>187.5768924556182</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.2956700177302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>67.95588974198583</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>64.13206468856599</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9315342131675637</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.7349138039411</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>51.04722446792932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>161.6134128667196</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.13206468856666</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>5.490810098362351</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>161.6134128667196</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.31126771337313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>64.13206468856599</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.4694561009728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>101.690432039017</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9790394051221</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2304.808759915837</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,16 +4330,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3037.853301985886</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2706.790414642315</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y2" t="n">
-        <v>2304.808759915837</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2269.968910186251</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1901.00639324584</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1542.740694639089</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1156.952442040845</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>745.9665372512375</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>330.8940870962339</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2656.568750250373</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>601.3302584915484</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2807.649436607934</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2807.649436607934</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2807.649436607934</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.784138943829</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379422</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>87.68248070098156</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3192.291725247109</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>277.9583804647966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>277.9583804647966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>277.9583804647966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987799</v>
+        <v>831.406353818561</v>
       </c>
       <c r="U13" t="n">
-        <v>749.0240153319969</v>
+        <v>831.406353818561</v>
       </c>
       <c r="V13" t="n">
-        <v>749.0240153319969</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W13" t="n">
-        <v>459.6068452950363</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X13" t="n">
-        <v>459.6068452950363</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y13" t="n">
-        <v>459.6068452950363</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.561141547438</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>392.561141547438</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402009</v>
+        <v>873.0217042415178</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843986</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="V16" t="n">
-        <v>681.9783115843986</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W16" t="n">
-        <v>392.561141547438</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X16" t="n">
-        <v>392.561141547438</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.561141547438</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.2705654736604</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687997</v>
@@ -5703,22 +5703,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.480314654151</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V19" t="n">
-        <v>1151.480314654151</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W19" t="n">
-        <v>862.0631446171906</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X19" t="n">
-        <v>862.0631446171906</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y19" t="n">
-        <v>641.2705654736604</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.0735937191732</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797189</v>
@@ -5937,25 +5937,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.480314654151</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="V22" t="n">
-        <v>1151.480314654151</v>
+        <v>1003.016218758971</v>
       </c>
       <c r="W22" t="n">
-        <v>862.0631446171906</v>
+        <v>713.5990487220106</v>
       </c>
       <c r="X22" t="n">
-        <v>634.0735937191732</v>
+        <v>713.5990487220106</v>
       </c>
       <c r="Y22" t="n">
-        <v>634.0735937191732</v>
+        <v>713.5990487220106</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,7 +6007,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>240.7066105458823</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C25" t="n">
-        <v>240.7066105458823</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797189</v>
@@ -6147,25 +6147,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
         <v>1440.555541309953</v>
@@ -6174,25 +6174,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T25" t="n">
-        <v>1440.555541309953</v>
+        <v>1068.229098423829</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.480314654151</v>
+        <v>1068.229098423829</v>
       </c>
       <c r="V25" t="n">
-        <v>896.7958264482644</v>
+        <v>1068.229098423829</v>
       </c>
       <c r="W25" t="n">
-        <v>607.3786564113038</v>
+        <v>778.8119283868682</v>
       </c>
       <c r="X25" t="n">
-        <v>379.3891055132865</v>
+        <v>778.8119283868682</v>
       </c>
       <c r="Y25" t="n">
-        <v>240.7066105458823</v>
+        <v>558.0193492433381</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,10 +6262,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.3786564113038</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
         <v>1440.555541309953</v>
@@ -6420,16 +6420,16 @@
         <v>1151.480314654151</v>
       </c>
       <c r="V28" t="n">
-        <v>896.7958264482644</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W28" t="n">
-        <v>607.3786564113038</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X28" t="n">
-        <v>607.3786564113038</v>
+        <v>379.3891055132858</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.3786564113038</v>
+        <v>158.5965263697557</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>386.5860772677737</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C31" t="n">
-        <v>386.5860772677737</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>236.469437855438</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,25 +6621,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
         <v>1440.555541309953</v>
@@ -6651,22 +6651,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.480314654151</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="V31" t="n">
-        <v>896.7958264482644</v>
+        <v>966.2695881270071</v>
       </c>
       <c r="W31" t="n">
-        <v>607.3786564113038</v>
+        <v>676.8524180900465</v>
       </c>
       <c r="X31" t="n">
-        <v>607.3786564113038</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="Y31" t="n">
-        <v>386.5860772677737</v>
+        <v>538.7363435406111</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.3786564113038</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>607.3786564113038</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
         <v>555.8158034133954</v>
@@ -6858,25 +6858,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
         <v>1440.555541309953</v>
@@ -6888,22 +6888,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T34" t="n">
-        <v>1440.555541309953</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.480314654151</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="V34" t="n">
-        <v>896.7958264482644</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="W34" t="n">
-        <v>607.3786564113038</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3786564113038</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.3786564113038</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.81666304797189</v>
+        <v>414.4721287421137</v>
       </c>
       <c r="C37" t="n">
-        <v>93.81666304797189</v>
+        <v>414.4721287421137</v>
       </c>
       <c r="D37" t="n">
-        <v>93.81666304797189</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
         <v>1440.555541309953</v>
@@ -7125,22 +7125,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.480314654151</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V37" t="n">
-        <v>896.7958264482644</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="W37" t="n">
-        <v>607.3786564113038</v>
+        <v>642.461679640131</v>
       </c>
       <c r="X37" t="n">
-        <v>379.3891055132865</v>
+        <v>414.4721287421137</v>
       </c>
       <c r="Y37" t="n">
-        <v>158.5965263697564</v>
+        <v>414.4721287421137</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.81666304797189</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>93.81666304797189</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>93.81666304797189</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N40" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q40" t="n">
         <v>1440.555541309953</v>
@@ -7362,22 +7362,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1220.954076332895</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U40" t="n">
-        <v>931.8788496770924</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V40" t="n">
-        <v>677.1943614712055</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W40" t="n">
-        <v>387.7771914342449</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="X40" t="n">
-        <v>159.7876405362276</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.81666304797189</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="C43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="D43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,25 +7569,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
         <v>1440.555541309953</v>
@@ -7596,25 +7596,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>1257.700706964858</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1038.099241987799</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>1038.099241987799</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V43" t="n">
-        <v>783.4147537819123</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W43" t="n">
-        <v>493.9975837449517</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X43" t="n">
-        <v>266.0080328469343</v>
+        <v>379.3891055132858</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.81666304797187</v>
+        <v>158.5965263697557</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="C46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="D46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7806,25 +7806,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
         <v>1440.555541309953</v>
@@ -7833,25 +7833,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T46" t="n">
-        <v>1154.983098844639</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U46" t="n">
-        <v>865.9078721888367</v>
+        <v>968.6254803090551</v>
       </c>
       <c r="V46" t="n">
-        <v>611.2233839829498</v>
+        <v>713.9409921031682</v>
       </c>
       <c r="W46" t="n">
-        <v>321.8062139459892</v>
+        <v>424.5238220662076</v>
       </c>
       <c r="X46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
     </row>
   </sheetData>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.0142165604609</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>109.5547104268439</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.9631037965416</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>154.668239104933</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>144.7134499732413</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.3823767705415</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>60.61160620820162</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>80.10978030955815</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>173.9647231509796</v>
       </c>
       <c r="C22" t="n">
-        <v>92.96603369118893</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>29.82855787167011</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.28898333436462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>99.29093135664201</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>82.30189795800318</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.5024284334016</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>88.97474158509607</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>97.56824855028304</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>55.79203746056865</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.6999154933706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>143.12466291985</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>64.09624252231754</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.2733856387217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>101.3920736037029</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.11519725112197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>115.7150182882713</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>43.73061598391502</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920300.368870655</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920300.3688706551</v>
+        <v>773246.2968165616</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706551</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920300.3688706553</v>
+        <v>920300.3688706552</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920300.3688706552</v>
+        <v>920300.3688706553</v>
       </c>
     </row>
     <row r="15">
@@ -26322,16 +26322,16 @@
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>450359.7549792567</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="F2" t="n">
-        <v>450359.7549792567</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="G2" t="n">
         <v>450359.7549792568</v>
       </c>
       <c r="H2" t="n">
-        <v>450359.7549792567</v>
+        <v>450359.7549792566</v>
       </c>
       <c r="I2" t="n">
         <v>450359.7549792568</v>
@@ -26346,13 +26346,13 @@
         <v>450359.7549792567</v>
       </c>
       <c r="M2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="N2" t="n">
         <v>450359.7549792567</v>
       </c>
       <c r="O2" t="n">
-        <v>450359.7549792568</v>
+        <v>450359.7549792567</v>
       </c>
       <c r="P2" t="n">
         <v>450359.7549792567</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>309843.0334598205</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545149</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>761.3882086835455</v>
+      </c>
+      <c r="I4" t="n">
         <v>761.3882086835451</v>
       </c>
-      <c r="G4" t="n">
-        <v>761.3882086835454</v>
-      </c>
-      <c r="H4" t="n">
-        <v>761.3882086835453</v>
-      </c>
-      <c r="I4" t="n">
-        <v>761.3882086835454</v>
-      </c>
       <c r="J4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="O4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1058176.412721075</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065174</v>
+        <v>270568.3330065173</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065171</v>
+        <v>270568.3330065173</v>
       </c>
       <c r="E6" t="n">
-        <v>22118.18980484545</v>
+        <v>303098.7368858455</v>
       </c>
       <c r="F6" t="n">
-        <v>347530.6516122008</v>
+        <v>303098.7368858455</v>
       </c>
       <c r="G6" t="n">
-        <v>347530.6516122005</v>
+        <v>38538.28495339902</v>
       </c>
       <c r="H6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132194</v>
       </c>
       <c r="I6" t="n">
-        <v>347530.6516122007</v>
+        <v>348381.31841322</v>
       </c>
       <c r="J6" t="n">
-        <v>129999.4492149231</v>
+        <v>130850.1160159421</v>
       </c>
       <c r="K6" t="n">
-        <v>347530.6516122005</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="L6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="M6" t="n">
-        <v>262475.6236766889</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="N6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132195</v>
       </c>
       <c r="O6" t="n">
-        <v>347530.6516122007</v>
+        <v>266245.4878177681</v>
       </c>
       <c r="P6" t="n">
-        <v>347530.6516122006</v>
+        <v>348381.3184132195</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>39.95509197054696</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>75.30793932002626</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>74.44654320283641</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.88174980530002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>217.6364591749285</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>51.32408273547222</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,19 +28067,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>204.750994762927</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649825</v>
@@ -36050,19 +36050,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K22" t="n">
         <v>157.5888220649825</v>
@@ -36287,19 +36287,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N22" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P22" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L40" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M40" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O40" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
